--- a/media/files/2017/05/618.xlsx
+++ b/media/files/2017/05/618.xlsx
@@ -1099,6 +1099,9 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,9 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,18 +1434,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
@@ -1500,13 +1500,13 @@
       <c r="G3" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>188</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>186</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10">
         <v>50</v>
@@ -1852,7 +1852,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F13" s="9">
         <v>50</v>
@@ -1861,15 +1861,15 @@
         <v>50</v>
       </c>
       <c r="H13" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I13" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="4">
         <f>SUM(C13:J13)</f>
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="8"/>
@@ -1879,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C14" s="10">
         <v>50</v>
@@ -1888,24 +1888,24 @@
         <v>50</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F14" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9">
         <v>50</v>
       </c>
       <c r="H14" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="4">
         <f>SUM(C14:J14)</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
@@ -1915,25 +1915,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10">
+        <v>50</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="9">
         <v>20</v>
       </c>
-      <c r="C15" s="10">
-        <v>30</v>
-      </c>
-      <c r="D15" s="10">
-        <v>50</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="9">
-        <v>50</v>
-      </c>
       <c r="G15" s="9">
         <v>50</v>
       </c>
       <c r="H15" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9">
         <v>60</v>
@@ -2411,7 +2411,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C29" s="10">
         <v>50</v>
@@ -2420,20 +2420,22 @@
         <v>50</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F29" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9">
         <v>50</v>
       </c>
       <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9">
+        <v>30</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="4">
         <f>SUM(C29:J29)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="8"/>
@@ -2443,7 +2445,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="10">
         <v>50</v>
@@ -2452,7 +2454,7 @@
         <v>50</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9">
         <v>50</v>
@@ -2475,29 +2477,25 @@
         <v>28</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C31" s="10">
         <v>50</v>
       </c>
       <c r="D31" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F31" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G31" s="9">
         <v>50</v>
       </c>
-      <c r="H31" s="9">
-        <v>20</v>
-      </c>
-      <c r="I31" s="9">
-        <v>30</v>
-      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="4">
         <f>SUM(C31:J31)</f>
@@ -2511,16 +2509,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10">
         <v>50</v>
       </c>
       <c r="D32" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F32" s="9">
         <v>20</v>
@@ -2528,7 +2526,9 @@
       <c r="G32" s="9">
         <v>50</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9">
+        <v>20</v>
+      </c>
       <c r="I32" s="9">
         <v>30</v>
       </c>
@@ -2545,26 +2545,24 @@
         <v>30</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C33" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D33" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F33" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G33" s="9">
         <v>50</v>
       </c>
-      <c r="H33" s="9">
-        <v>30</v>
-      </c>
+      <c r="H33" s="9"/>
       <c r="I33" s="9">
         <v>30</v>
       </c>
@@ -2581,31 +2579,33 @@
         <v>31</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C34" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D34" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F34" s="9">
         <v>50</v>
       </c>
       <c r="G34" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H34" s="9">
-        <v>10</v>
-      </c>
-      <c r="I34" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="9">
+        <v>30</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="4">
         <f>SUM(C34:J34)</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="8"/>
@@ -2615,27 +2615,27 @@
         <v>32</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C35" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D35" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F35" s="9">
         <v>50</v>
       </c>
       <c r="G35" s="9">
-        <v>50</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9">
-        <v>30</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H35" s="9">
+        <v>10</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="4">
         <f>SUM(C35:J35)</f>
@@ -2649,26 +2649,26 @@
         <v>33</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C36" s="10">
         <v>30</v>
       </c>
       <c r="D36" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F36" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G36" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="4">
@@ -2683,27 +2683,27 @@
         <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C37" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D37" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="F37" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G37" s="9">
-        <v>50</v>
-      </c>
-      <c r="H37" s="9">
-        <v>10</v>
-      </c>
-      <c r="I37" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9">
+        <v>60</v>
+      </c>
       <c r="J37" s="9"/>
       <c r="K37" s="4">
         <f>SUM(C37:J37)</f>
@@ -2717,31 +2717,31 @@
         <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C38" s="10">
         <v>50</v>
       </c>
       <c r="D38" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="F38" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G38" s="9">
-        <v>30</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9">
-        <v>30</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H38" s="9">
+        <v>10</v>
+      </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="4">
         <f>SUM(C38:J38)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -3005,31 +3005,31 @@
         <v>44</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C47" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D47" s="10">
         <v>30</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="F47" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G47" s="9">
-        <v>30</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H47" s="9">
+        <v>30</v>
+      </c>
+      <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="4">
         <f>SUM(C47:J47)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="8"/>
@@ -3039,29 +3039,31 @@
         <v>45</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C48" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D48" s="10">
         <v>30</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="F48" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G48" s="9">
         <v>30</v>
       </c>
       <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="9">
+        <v>60</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="4">
         <f>SUM(C48:J48)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
@@ -3069,7 +3071,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C49" s="10">
         <v>50</v>
@@ -3078,17 +3080,15 @@
         <v>30</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="F49" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G49" s="9">
-        <v>50</v>
-      </c>
-      <c r="H49" s="9">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="4">
@@ -3103,24 +3103,26 @@
         <v>47</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C50" s="10">
         <v>50</v>
       </c>
       <c r="D50" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F50" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50" s="9">
         <v>50</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9">
+        <v>10</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="4">
@@ -3135,22 +3137,22 @@
         <v>48</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
       </c>
       <c r="D51" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="F51" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G51" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3167,22 +3169,22 @@
         <v>49</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C52" s="10">
         <v>50</v>
       </c>
       <c r="D52" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="F52" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G52" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -3199,22 +3201,22 @@
         <v>50</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C53" s="10">
         <v>50</v>
       </c>
       <c r="D53" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="F53" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G53" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -3231,26 +3233,24 @@
         <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C54" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D54" s="10">
         <v>30</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F54" s="9">
         <v>50</v>
       </c>
       <c r="G54" s="9">
-        <v>50</v>
-      </c>
-      <c r="H54" s="9">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="4">
